--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -165,6 +160,14 @@
   </si>
   <si>
     <t>扩展字段，比如得到英雄等，实际意义和当时的类型有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后增加的属性（货币经验等）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,26 +577,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="58.25" customWidth="1"/>
+    <col min="10" max="10" width="58.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -657,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -721,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -753,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -785,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -817,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -849,7 +852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -881,7 +884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -913,73 +916,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1006,12 +1009,12 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -1038,12 +1041,12 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -1070,44 +1073,44 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -1134,6 +1137,38 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -168,6 +176,14 @@
   </si>
   <si>
     <t>使用后增加的属性（货币经验等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品显示Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,8 +251,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -577,26 +621,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="58.21875" customWidth="1"/>
+    <col min="10" max="10" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -660,7 +704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -724,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -756,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -788,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -820,7 +864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -852,7 +896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -884,7 +928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -916,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -948,7 +992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -980,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1108,7 +1152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1140,7 +1184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1170,6 +1214,38 @@
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>物品显示Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,6 +1256,38 @@
         <v>49</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Id</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -85,12 +85,36 @@
     <t>物品品质</t>
   </si>
   <si>
+    <t>DescID</t>
+  </si>
+  <si>
     <t>装备描述字符串索引</t>
   </si>
   <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>绝对值属性包索引</t>
+  </si>
+  <si>
+    <t>ConsumeData</t>
+  </si>
+  <si>
+    <t>消费数据属性包索引</t>
+  </si>
+  <si>
+    <t>AwardData</t>
+  </si>
+  <si>
     <t>使用后获得的物品</t>
   </si>
   <si>
+    <t>AwardProperty</t>
+  </si>
+  <si>
+    <t>使用后增加的属性（货币经验等）</t>
+  </si>
+  <si>
     <t>CoolDownTime</t>
   </si>
   <si>
@@ -127,70 +151,185 @@
     <t>Script</t>
   </si>
   <si>
-    <t>EffectData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumeData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对值属性包索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费数据属性包索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品使用脚本文件，比如得到英雄等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扩展字段，比如得到英雄等，实际意义和当时的类型有关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后增加的属性（货币经验等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +342,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,9 +537,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -222,29 +789,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -294,71 +900,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,27 +1182,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.21666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.21666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.33333333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.775" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="58.21875" customWidth="1"/>
+    <col min="10" max="10" width="58.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,11 +1235,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="b">
@@ -645,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -653,18 +1260,18 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="b">
@@ -677,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -685,18 +1292,18 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="b">
@@ -709,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -717,18 +1324,18 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="b">
@@ -741,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -749,18 +1356,18 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="b">
@@ -773,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -781,407 +1388,406 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18 F19:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Id</t>
   </si>
@@ -39,7 +34,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>View</t>
+    <t>Cache</t>
   </si>
   <si>
     <t>Index</t>
@@ -93,12 +88,36 @@
     <t>物品品质</t>
   </si>
   <si>
+    <t>DescID</t>
+  </si>
+  <si>
     <t>装备描述字符串索引</t>
   </si>
   <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>绝对值属性包索引</t>
+  </si>
+  <si>
+    <t>ConsumeData</t>
+  </si>
+  <si>
+    <t>消费数据属性包索引</t>
+  </si>
+  <si>
+    <t>AwardData</t>
+  </si>
+  <si>
     <t>使用后获得的物品</t>
   </si>
   <si>
+    <t>AwardProperty</t>
+  </si>
+  <si>
+    <t>使用后增加的属性（货币经验等）</t>
+  </si>
+  <si>
     <t>CoolDownTime</t>
   </si>
   <si>
@@ -135,86 +154,197 @@
     <t>Script</t>
   </si>
   <si>
-    <t>EffectData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumeData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对值属性包索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费数据属性包索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品使用脚本文件，比如得到英雄等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扩展字段，比如得到英雄等，实际意义和当时的类型有关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后增加的属性（货币经验等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品显示Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +357,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,9 +552,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -246,57 +804,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -346,71 +938,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -628,14 +1220,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -648,7 +1241,7 @@
     <col min="10" max="10" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,11 +1273,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="b">
@@ -697,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -705,18 +1298,18 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="b">
@@ -729,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,18 +1330,18 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="b">
@@ -761,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -769,18 +1362,18 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="b">
@@ -793,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -801,18 +1394,18 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="b">
@@ -825,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -833,471 +1426,470 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20 F21:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27765" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Id</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>名字</t>
+  </si>
+  <si>
+    <t>HeroType</t>
+  </si>
+  <si>
+    <t>归属英雄类型，力敏智</t>
   </si>
 </sst>
 </file>
@@ -180,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,6 +201,73 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,31 +282,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,32 +313,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,59 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -359,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +556,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -594,35 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,162 +656,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -877,7 +883,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1222,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1881,10 +1886,42 @@
         <v>51</v>
       </c>
     </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20 F21:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21 F2:F20 F22:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
